--- a/biology/Médecine/Jean_Origet/Jean_Origet.xlsx
+++ b/biology/Médecine/Jean_Origet/Jean_Origet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean Origet, né le 6 octobre 1749 à Limoges et mort le 12 mars 1828 à Tours, est un médecin tourangeau connu pour être membre de la Société royale de médecine de Paris et créateur de la société médicale d'Indre-et-Loire[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Origet, né le 6 octobre 1749 à Limoges et mort le 12 mars 1828 à Tours, est un médecin tourangeau connu pour être membre de la Société royale de médecine de Paris et créateur de la société médicale d'Indre-et-Loire.
 </t>
         </is>
       </c>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean Origet est né le 6 octobre 1749 à Limoges et mort le 12 mars 1828 à Tours. Élève chez les Jésuites, il choisit d'effectuer des études de médecine et devient docteur le 1er février 1773[2]. 
-Il participe à la réfection de l'Hôtel-Dieu de Tours dont il est médecin à partir de 1794[2]. 
-En 1796 il est nommé médecin au dépôt de mendicité et médecin des épidémies[2]. 
-En 1801 il devient vice-président de la société médicale d'Indre-et-Loire[2]. 
-Il est agrégé au Collège royal de médecine de Tours[2].
-Il mène une vie « toute de dignité et de bienfaisance » selon l'hommage qui est rendu par le Professeur Le Double lors de la célébration du centenaire de la société médicale d'Indre-et-Loire[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Origet est né le 6 octobre 1749 à Limoges et mort le 12 mars 1828 à Tours. Élève chez les Jésuites, il choisit d'effectuer des études de médecine et devient docteur le 1er février 1773. 
+Il participe à la réfection de l'Hôtel-Dieu de Tours dont il est médecin à partir de 1794. 
+En 1796 il est nommé médecin au dépôt de mendicité et médecin des épidémies. 
+En 1801 il devient vice-président de la société médicale d'Indre-et-Loire. 
+Il est agrégé au Collège royal de médecine de Tours.
+Il mène une vie « toute de dignité et de bienfaisance » selon l'hommage qui est rendu par le Professeur Le Double lors de la célébration du centenaire de la société médicale d'Indre-et-Loire.
 </t>
         </is>
       </c>
@@ -547,7 +561,9 @@
           <t>Fonds déposé aux Archives départementales d'Indre-et-Loire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2021, les Archives départementales d'Indre-et-Loire reçoivent en don 18 livres de médecine du XVIIIe siècle ayant appartenu à Jean Origet. Ce fonds traite d'anatomie, de pharmacopée et de chirurgie.
 </t>
